--- a/Final-Creating an Executive Data Summary.xlsx
+++ b/Final-Creating an Executive Data Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chicagocody/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4063DDE4-B06D-0F48-B0AA-EA3E3B13978F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CA11D4-8AC4-FC40-8746-B4365305106C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{76F2D8FE-0054-4598-9C36-C1C28E4F078D}"/>
   </bookViews>
@@ -17,6 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$F$2:$Y$246</definedName>
+    <definedName name="Abd">Summary!$B$18</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -518,7 +519,7 @@
     <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,6 +549,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -583,7 +590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -609,6 +616,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -924,13 +937,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07036599-DE44-45AC-9B55-C58B476BC346}">
-  <dimension ref="A1:Y246"/>
+  <dimension ref="A1:Z246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -957,7 +970,7 @@
     <col min="25" max="25" width="10.5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="Y1" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z1" s="13"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F2">
         <v>1065</v>
       </c>
@@ -1086,7 +1100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F3">
         <v>1059</v>
       </c>
@@ -1153,7 +1167,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>154</v>
       </c>
@@ -1226,7 +1240,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="32" x14ac:dyDescent="0.2">
       <c r="B5" s="11">
         <v>2022</v>
       </c>
@@ -1302,7 +1316,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="12">
         <f>SUMIF(L2:L246,"2022",R2:R246)</f>
         <v>330500</v>
@@ -1382,7 +1396,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -1453,7 +1467,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -1524,7 +1538,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9">
@@ -1593,7 +1607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>155</v>
       </c>
@@ -1666,7 +1680,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="32" x14ac:dyDescent="0.2">
       <c r="B11" s="11">
         <v>2022</v>
       </c>
@@ -1743,7 +1757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -1826,7 +1840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -1909,7 +1923,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -1992,7 +2006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F15">
         <v>1054</v>
       </c>
@@ -2059,7 +2073,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F16">
         <v>1071</v>
       </c>
@@ -2126,7 +2140,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="F17">
@@ -2195,7 +2209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F18">
         <v>1061</v>
       </c>
@@ -2262,7 +2276,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F19">
         <v>1062</v>
       </c>
@@ -2329,7 +2343,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F20">
         <v>1063</v>
       </c>
@@ -2396,7 +2410,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
       <c r="F21">
         <v>1055</v>
       </c>
@@ -2463,7 +2478,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
       <c r="F22">
         <v>1064</v>
       </c>
@@ -2530,7 +2547,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
       <c r="F23">
         <v>1056</v>
       </c>
@@ -2597,7 +2615,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F24">
         <v>1057</v>
       </c>
@@ -2664,7 +2682,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
       <c r="F25">
         <v>1058</v>
       </c>
@@ -2731,7 +2751,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F26">
         <v>1073</v>
       </c>
@@ -2798,7 +2818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F27">
         <v>1074</v>
       </c>
@@ -2865,7 +2885,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F28">
         <v>1075</v>
       </c>
@@ -2932,7 +2952,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F29">
         <v>1076</v>
       </c>
@@ -2999,7 +3019,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F30">
         <v>1077</v>
       </c>
@@ -3066,7 +3086,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F31">
         <v>1078</v>
       </c>
@@ -3133,7 +3153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F32">
         <v>1079</v>
       </c>
